--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9390"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -208,15 +208,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期：2018.10.15 第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：经过周末全组组员的努力，已于周日完成用例规约文档设计。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成系统管理员模块功能实体的提取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群主角色相关模块的实体提取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成普通用户相关功能模块的实体提取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于普通用户功能模块比较多，为了保证提取实体时比较完整，此任务由两个人来完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合各个组员的提取的实体，绘制出完整的er图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +388,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -377,7 +411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,6 +485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -485,6 +520,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,14 +696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -676,7 +712,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -684,7 +720,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -698,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -710,7 +746,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -722,7 +758,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27">
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -734,7 +770,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27">
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -746,7 +782,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -758,7 +794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -766,13 +802,13 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -780,7 +816,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -794,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -806,7 +842,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -816,7 +852,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -826,7 +862,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -836,7 +872,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -848,7 +884,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
@@ -856,13 +892,13 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -870,7 +906,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -884,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5">
+    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -898,7 +934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54">
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -910,7 +946,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="54">
+    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -922,7 +958,7 @@
       </c>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" ht="54">
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -934,7 +970,7 @@
       </c>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" ht="40.5">
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -946,7 +982,7 @@
       </c>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
@@ -954,13 +990,13 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -968,7 +1004,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -982,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5">
+    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -994,7 +1030,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="54">
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1006,7 +1042,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54">
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1054,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="54">
+    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1030,7 +1066,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="54">
+    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
@@ -1042,22 +1078,113 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A19:D19"/>
@@ -1076,12 +1203,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,12 +1217,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9390"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -232,19 +232,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>整合各个组员的提取的实体，绘制出完整的er图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：任务完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,20 +389,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -485,7 +499,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -520,7 +533,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,14 +708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -712,7 +724,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -720,7 +732,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -734,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -746,7 +758,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -758,7 +770,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -770,7 +782,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="27">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -782,7 +794,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -794,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -802,13 +814,13 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -816,7 +828,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -830,11 +842,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -842,37 +854,37 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -884,7 +896,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
@@ -892,13 +904,13 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -906,7 +918,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -920,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -930,11 +942,11 @@
       <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="54">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -944,9 +956,9 @@
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" ht="54">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -956,9 +968,9 @@
       <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" ht="54">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -968,9 +980,9 @@
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -980,9 +992,9 @@
       <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
@@ -990,13 +1002,13 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1004,7 +1016,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="40.5">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1042,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="54">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1042,7 +1054,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="54">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1066,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="54">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1066,7 +1078,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="54">
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1090,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>48</v>
       </c>
@@ -1086,13 +1098,13 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
@@ -1100,7 +1112,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1114,65 +1126,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="29.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="9"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1180,11 +1200,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A19:D19"/>
@@ -1195,6 +1210,11 @@
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="D21:D25"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1203,12 +1223,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1217,12 +1237,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9390"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -245,14 +245,30 @@
   </si>
   <si>
     <t>总结：任务完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第七周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过小组成员的讨论，由于我们班安卓学的不多，用纯安卓开发和用h5开发都需要进行学习，考虑到我们组员对网页的开发会比较熟悉，初步决定使用当下比较的流行的h5开发移动端。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过网络途径了解h5开发，初步学习如何通过h5进行开发移动端</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,12 +399,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -396,19 +427,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,6 +524,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -533,6 +559,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,14 +735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="B48" sqref="B48:B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -724,15 +751,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -746,7 +773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -758,7 +785,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -770,7 +797,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27">
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -782,7 +809,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27">
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -794,7 +821,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -806,29 +833,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -842,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -854,37 +881,37 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -896,29 +923,29 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -932,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5">
+    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -946,7 +973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54">
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -956,9 +983,9 @@
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" ht="54">
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -968,9 +995,9 @@
       <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" ht="54">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -980,9 +1007,9 @@
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -992,31 +1019,31 @@
       <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5">
+    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1069,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="54">
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1054,7 +1081,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54">
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1093,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="54">
+    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1078,7 +1105,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="54">
+    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
@@ -1090,29 +1117,29 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27">
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1138,29 +1165,29 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1">
+    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.75" customHeight="1">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
@@ -1172,7 +1199,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="27">
+    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
@@ -1184,22 +1211,111 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A19:D19"/>
@@ -1210,11 +1326,6 @@
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="D21:D25"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1223,12 +1334,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1237,12 +1348,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -248,10 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.15 第七周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -261,6 +257,10 @@
   </si>
   <si>
     <t>通过网络途径了解h5开发，初步学习如何通过h5进行开发移动端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,6 +423,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,9 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +739,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B52"/>
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1172,7 +1172,7 @@
       <c r="B40" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -1183,8 +1183,8 @@
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1252,18 +1252,18 @@
         <v>6</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="6"/>
       <c r="D49" s="11"/>
     </row>
@@ -1271,7 +1271,7 @@
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="7"/>
       <c r="D50" s="11"/>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="17"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="3"/>
       <c r="D51" s="11"/>
     </row>
@@ -1287,13 +1287,13 @@
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="3"/>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1307,15 +1307,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A19:D19"/>
@@ -1326,6 +1317,15 @@
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="D21:D25"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9390"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>经过小组成员的讨论，由于我们班安卓学的不多，用纯安卓开发和用h5开发都需要进行学习，考虑到我们组员对网页的开发会比较熟悉，初步决定使用当下比较的流行的h5开发移动端。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -261,14 +257,25 @@
   </si>
   <si>
     <t>日期：2018.10.17 第七周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：从下午到晚上，发现用h5开发我们还需要补充一些其他的前端知识，考虑到每个组员的学习能力不同，所以我们将在下周在开始代码的编写。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,7 +457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -524,7 +531,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -559,7 +565,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,14 +740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -751,7 +756,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -759,7 +764,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -773,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -785,7 +790,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -797,7 +802,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -809,7 +814,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="27">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -821,7 +826,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -833,7 +838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -841,13 +846,13 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -855,7 +860,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -869,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -881,7 +886,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -891,7 +896,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -901,7 +906,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -911,7 +916,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -923,7 +928,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -931,13 +936,13 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
@@ -945,7 +950,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -959,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -973,7 +978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="54">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -985,7 +990,7 @@
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="54">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -997,7 +1002,7 @@
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="54">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1009,7 +1014,7 @@
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="40.5">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -1021,7 +1026,7 @@
       </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
@@ -1029,13 +1034,13 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>39</v>
       </c>
@@ -1043,7 +1048,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="40.5">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1074,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="54">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1086,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="54">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1098,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="54">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1105,7 +1110,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="54">
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1122,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
@@ -1125,13 +1130,13 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>47</v>
       </c>
@@ -1139,7 +1144,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1161,11 +1166,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="29.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1192,7 @@
       <c r="C41" s="17"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
@@ -1199,7 +1204,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
@@ -1211,7 +1216,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
         <v>56</v>
       </c>
@@ -1219,21 +1224,21 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
@@ -1247,59 +1252,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D48" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="14"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="25.5" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="14"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="21.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="21.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="15"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1334,12 +1349,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1348,12 +1363,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -260,14 +260,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：从下午到晚上，发现用h5开发我们还需要补充一些其他的前端知识，考虑到每个组员的学习能力不同，所以我们将在下周在开始代码的编写。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：从下午到晚上，发现用h5开发我们还需要补充一些其他的前端知识，考虑到每个组员的学习能力不同，所以我们将在下周再开始代码的编写。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +744,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="A53" sqref="A53:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1260,7 +1260,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>57</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="11"/>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="11"/>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="11"/>
     </row>
@@ -1302,13 +1302,13 @@
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1322,6 +1322,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A19:D19"/>
@@ -1332,15 +1341,6 @@
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="D21:D25"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.17 第七周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
   </si>
   <si>
@@ -268,14 +264,38 @@
   </si>
   <si>
     <t>总结：从下午到晚上，发现用h5开发我们还需要补充一些其他的前端知识，考虑到每个组员的学习能力不同，所以我们将在下周再开始代码的编写。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.18 第七周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目评审</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,7 +477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,6 +551,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -565,6 +586,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -740,14 +762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -756,7 +778,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -764,7 +786,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -778,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -790,7 +812,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -802,7 +824,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27">
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -814,7 +836,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27">
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -826,7 +848,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -838,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -846,13 +868,13 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -860,7 +882,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -874,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -886,7 +908,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -896,7 +918,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -906,7 +928,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -916,7 +938,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -928,7 +950,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -936,13 +958,13 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
@@ -950,7 +972,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -964,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5">
+    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -978,7 +1000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54">
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -990,7 +1012,7 @@
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" ht="54">
+    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +1024,7 @@
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" ht="54">
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1014,7 +1036,7 @@
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" ht="40.5">
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1048,7 @@
       </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
@@ -1034,13 +1056,13 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>39</v>
       </c>
@@ -1048,7 +1070,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1062,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5">
+    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1096,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="54">
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1108,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54">
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1120,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="54">
+    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1110,7 +1132,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="54">
+    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1144,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
@@ -1130,13 +1152,13 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>47</v>
       </c>
@@ -1144,7 +1166,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27">
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1192,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1">
+    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -1184,7 +1206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.75" customHeight="1">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1214,7 @@
       <c r="C41" s="17"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
@@ -1204,7 +1226,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="27">
+    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1238,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>56</v>
       </c>
@@ -1224,21 +1246,21 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
@@ -1252,7 +1274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -1260,77 +1282,159 @@
         <v>58</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" ht="25.5" customHeight="1">
+    <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" ht="21.75" customHeight="1">
+    <row r="51" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" ht="21.75" customHeight="1">
+    <row r="52" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
+  <mergeCells count="22">
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D63"/>
+    <mergeCell ref="B57:B61"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A19:D19"/>
@@ -1341,6 +1445,15 @@
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="D21:D25"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1349,12 +1462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1363,12 +1476,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9390"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>有事情缺席</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考综合指导书，完成系统管理员角色的需求分析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -288,14 +284,54 @@
   </si>
   <si>
     <t>项目评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考综合指导书，完成系统管理员角色的需求分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约文档，完成PC端网页的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约文档，完成群主模块功能网页的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约文档，完成系统管理员模块功能网页的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约文档，完成普通用户相关功能模块的网页的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库表的创建，后台技术的选型，编写技术选型的文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.22 第八周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css、js不熟悉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：本次的分配任务未考虑到组员的css、js基础太久没用都忘得差不多了，导致了完成页面时需要大量查找资料，最后也没能如期完成分配的任务。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +467,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -477,7 +516,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -551,7 +590,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -586,7 +624,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,14 +799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:B61"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -778,15 +815,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -800,55 +837,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -860,29 +897,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -896,83 +933,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -986,91 +1023,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="54">
       <c r="A22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" ht="54">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" ht="54">
+      <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1084,89 +1121,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="40.5">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="54">
+      <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="54">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="54">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="54">
+      <c r="A34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1180,87 +1217,87 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="29.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:4" ht="24.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="16"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
+      <c r="A44" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
@@ -1274,83 +1311,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.5" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" ht="21.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -1364,79 +1401,186 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>67</v>
+      <c r="B57" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="27">
+      <c r="A66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="27">
+      <c r="A67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="27">
+      <c r="A68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" ht="27">
+      <c r="A69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="27">
+      <c r="A70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A62:D63"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D36"/>
+  <mergeCells count="24">
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A71:D72"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A1:D1"/>
@@ -1445,15 +1589,12 @@
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="D21:D25"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D63"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1462,12 +1603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1476,12 +1617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9390"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -324,14 +324,67 @@
   </si>
   <si>
     <t>总结：本次的分配任务未考虑到组员的css、js基础太久没用都忘得差不多了，导致了完成页面时需要大量查找资料，最后也没能如期完成分配的任务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第八周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约文档，继续完成PC端网页的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约文档，继续完成群主模块功能网页的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约文档，继续完成系统管理员模块功能网页的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例规约文档，继续完成普通用户相关功能模块的网页的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台系统ssm框架搭建，完成dao层、service层的代码编写</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +416,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -443,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,34 +533,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -516,7 +587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,6 +661,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -624,6 +696,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,14 +872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:D72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -815,15 +888,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -837,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -849,7 +922,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -861,7 +934,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27">
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -873,7 +946,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27">
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -885,7 +958,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -897,29 +970,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -933,11 +1006,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -945,37 +1018,37 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -987,29 +1060,29 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5">
+    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -1033,11 +1106,11 @@
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54">
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1047,9 +1120,9 @@
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" ht="54">
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1059,9 +1132,9 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" ht="54">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1071,9 +1144,9 @@
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1083,31 +1156,31 @@
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="10" t="s">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5">
+    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1206,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="54">
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
@@ -1145,7 +1218,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54">
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1230,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="54">
+    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -1169,7 +1242,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="54">
+    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -1181,29 +1254,29 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27">
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1229,29 +1302,29 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1">
+    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.75" customHeight="1">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
@@ -1263,7 +1336,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="27">
+    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
@@ -1275,29 +1348,29 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="9" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
@@ -1311,83 +1384,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.5" customHeight="1">
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4" ht="21.75" customHeight="1">
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" ht="21.75" customHeight="1">
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="16"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="10" t="s">
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="9" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -1401,11 +1474,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -1413,69 +1486,69 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="9" t="s">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="27">
+    <row r="66" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="27">
+    <row r="67" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
@@ -1517,7 +1590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="27">
+    <row r="68" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1602,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="27">
+    <row r="69" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -1543,7 +1616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="27">
+    <row r="70" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>18</v>
       </c>
@@ -1555,30 +1628,110 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
+  <mergeCells count="26">
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A80:D81"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A71:D72"/>
     <mergeCell ref="A19:D19"/>
@@ -1595,6 +1748,14 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1603,12 +1764,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1617,12 +1778,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9390"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -376,15 +376,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>后台系统ssm框架搭建，完成dao层、service层的代码编写</t>
+    <t>后台系统ssm框架搭建，完成dao层、部分service层的代码初步编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.24</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第八周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台系统ssm框架搭建，完成service层的代码编写</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +558,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -554,22 +591,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,7 +612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -661,7 +686,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -696,7 +720,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -872,14 +895,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -888,15 +911,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -910,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -922,7 +945,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -934,7 +957,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -946,7 +969,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="27">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -958,7 +981,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -970,29 +993,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1006,11 +1029,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1018,37 +1041,37 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1060,29 +1083,29 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -1106,11 +1129,11 @@
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="54">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1120,9 +1143,9 @@
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="54">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1132,9 +1155,9 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" ht="54">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1144,9 +1167,9 @@
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1156,31 +1179,31 @@
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="40.5">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1229,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="54">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1241,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="54">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1253,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="54">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -1242,7 +1265,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="54">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -1254,29 +1277,29 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1302,29 +1325,29 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="29.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="19"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
@@ -1336,7 +1359,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
@@ -1348,29 +1371,29 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
@@ -1384,83 +1407,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.5" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:4" ht="21.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" ht="21.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="9" t="s">
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="16" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -1474,11 +1497,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -1486,69 +1509,69 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="16" t="s">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -1562,7 +1585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="27">
       <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="27">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
@@ -1590,7 +1613,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="27">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -1598,11 +1621,11 @@
         <v>70</v>
       </c>
       <c r="C68" s="5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="27">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="27">
       <c r="A70" s="4" t="s">
         <v>18</v>
       </c>
@@ -1628,29 +1651,29 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="19" t="s">
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
@@ -1664,83 +1687,186 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="27">
       <c r="A75" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="27">
       <c r="A76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="27">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="5"/>
+      <c r="C77" s="5">
+        <v>0.9</v>
+      </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="27">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="5"/>
+      <c r="C78" s="5">
+        <v>0.8</v>
+      </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="27">
       <c r="A79" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="21" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="27">
+      <c r="A84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" ht="27">
+      <c r="A85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" ht="27">
+      <c r="A86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" ht="27">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" ht="27">
+      <c r="A88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A80:D81"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A71:D72"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="B12:B15"/>
     <mergeCell ref="D21:D25"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A62:D63"/>
@@ -1751,11 +1877,6 @@
     <mergeCell ref="A53:D54"/>
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,12 +1885,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1778,12 +1899,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -401,7 +401,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>后台系统ssm框架搭建，完成service层的代码编写</t>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只针对部分逻辑业务层，在结合前端页面时可能还需要增加其他内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第九周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成service层的代码编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合组员已编写好PC端的前台代码，编写前端需要请求到的后台处理action</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +590,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,28 +605,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -896,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -912,12 +947,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -994,26 +1029,26 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
@@ -1033,7 +1068,7 @@
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1045,7 +1080,7 @@
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1090,7 @@
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1065,7 +1100,7 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1084,26 +1119,26 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
@@ -1129,7 +1164,7 @@
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1143,7 +1178,7 @@
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" ht="54">
       <c r="A23" s="4" t="s">
@@ -1155,7 +1190,7 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" ht="54">
       <c r="A24" s="4" t="s">
@@ -1167,7 +1202,7 @@
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" ht="40.5">
       <c r="A25" s="4" t="s">
@@ -1179,29 +1214,29 @@
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
@@ -1278,26 +1313,26 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
@@ -1329,13 +1364,13 @@
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="19" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1343,9 +1378,9 @@
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
@@ -1372,26 +1407,26 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
@@ -1411,13 +1446,13 @@
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1425,63 +1460,63 @@
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" ht="25.5" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" ht="21.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" ht="21.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
@@ -1501,7 +1536,7 @@
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -1513,7 +1548,7 @@
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="15"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
@@ -1523,7 +1558,7 @@
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="3" t="s">
         <v>63</v>
       </c>
@@ -1533,7 +1568,7 @@
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
@@ -1543,33 +1578,33 @@
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="16"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
@@ -1592,7 +1627,7 @@
       <c r="B66" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="23">
         <v>0.1</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -1606,7 +1641,7 @@
       <c r="B67" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="23">
         <v>0.05</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -1620,8 +1655,8 @@
       <c r="B68" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="5">
-        <v>0.6</v>
+      <c r="C68" s="23">
+        <v>0.4</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -1632,7 +1667,7 @@
       <c r="B69" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="23">
         <v>0.05</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -1646,32 +1681,32 @@
       <c r="B70" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
@@ -1694,7 +1729,7 @@
       <c r="B75" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="23">
         <v>0.5</v>
       </c>
       <c r="D75" s="3"/>
@@ -1706,7 +1741,7 @@
       <c r="B76" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="23">
         <v>0.5</v>
       </c>
       <c r="D76" s="3"/>
@@ -1718,8 +1753,8 @@
       <c r="B77" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="5">
-        <v>0.9</v>
+      <c r="C77" s="23">
+        <v>0.6</v>
       </c>
       <c r="D77" s="3"/>
     </row>
@@ -1730,8 +1765,8 @@
       <c r="B78" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="5">
-        <v>0.8</v>
+      <c r="C78" s="23">
+        <v>0.6</v>
       </c>
       <c r="D78" s="3"/>
     </row>
@@ -1742,32 +1777,32 @@
       <c r="B79" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
@@ -1790,7 +1825,9 @@
       <c r="B84" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="23">
+        <v>0.7</v>
+      </c>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" ht="27">
@@ -1800,7 +1837,9 @@
       <c r="B85" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="23">
+        <v>0.7</v>
+      </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" ht="27">
@@ -1810,7 +1849,9 @@
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="5"/>
+      <c r="C86" s="23">
+        <v>0.8</v>
+      </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="27">
@@ -1820,51 +1861,127 @@
       <c r="B87" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="23">
+        <v>0.8</v>
+      </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" ht="27">
+    <row r="88" spans="1:4" ht="40.5">
       <c r="A88" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="D88" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="27">
+      <c r="A93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" ht="27">
+      <c r="A94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" ht="27">
+      <c r="A95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" ht="27">
+      <c r="A96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" ht="40.5">
+      <c r="A97" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A71:D72"/>
+  <mergeCells count="30">
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A98:D99"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="D21:D25"/>
@@ -1877,6 +1994,22 @@
     <mergeCell ref="A53:D54"/>
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A71:D72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9390"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="104">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -433,12 +433,90 @@
     <t>结合组员已编写好PC端的前台代码，编写前端需要请求到的后台处理action</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>计划到下周结束前完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第九周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第九周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善PC端网页的细节还有js的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善群主模块功能网页的细节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善系统管理员模块功能网页的细节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善普通用户相关功能模块的网页的细节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：完成的进度还可以，不过在细节上出现了一些小的问题，比如在不同屏幕手机展示效果布局出现较大的偏差，所以还需对所编写好的一些css进行调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,6 +671,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -605,9 +689,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,21 +711,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -647,7 +728,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -721,6 +802,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -755,6 +837,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -930,14 +1013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -946,15 +1029,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -968,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1063,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1075,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27">
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1087,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27">
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +1099,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1028,29 +1111,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="12" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1064,11 +1147,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1076,37 +1159,37 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1118,29 +1201,29 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1154,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5">
+    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -1164,11 +1247,11 @@
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54">
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1178,9 +1261,9 @@
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" ht="54">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1190,9 +1273,9 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" ht="54">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1202,9 +1285,9 @@
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1214,31 +1297,31 @@
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="14" t="s">
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1252,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5">
+    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1347,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="54">
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
@@ -1276,7 +1359,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54">
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1371,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="54">
+    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -1300,7 +1383,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="54">
+    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -1312,29 +1395,29 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="12" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1348,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27">
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1360,29 +1443,29 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1">
+    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.75" customHeight="1">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1">
+      <c r="B41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
@@ -1394,7 +1477,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="27">
+    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
@@ -1406,29 +1489,29 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="12" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
@@ -1442,83 +1525,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.5" customHeight="1">
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="22"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" ht="21.75" customHeight="1">
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" ht="21.75" customHeight="1">
+      <c r="D51" s="18"/>
+    </row>
+    <row r="52" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="16"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="14" t="s">
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="12" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -1532,11 +1615,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -1544,69 +1627,69 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="14" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="12" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -1620,61 +1703,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="27">
+    <row r="66" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="12">
         <v>0.1</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="27">
+    <row r="67" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="12">
         <v>0.05</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="27">
+    <row r="68" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="12">
         <v>0.4</v>
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="27">
+    <row r="69" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="12">
         <v>0.05</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="27">
+    <row r="70" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>18</v>
       </c>
@@ -1686,29 +1769,29 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="11" t="s">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
@@ -1722,55 +1805,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="27">
+    <row r="75" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="12">
         <v>0.5</v>
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" ht="27">
+    <row r="76" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="12">
         <v>0.5</v>
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" ht="27">
+    <row r="77" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="12">
         <v>0.6</v>
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" ht="27">
+    <row r="78" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="12">
         <v>0.6</v>
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" ht="27">
+    <row r="79" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>18</v>
       </c>
@@ -1782,29 +1865,29 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="13" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="11" t="s">
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
@@ -1818,55 +1901,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="27">
+    <row r="84" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="12">
         <v>0.7</v>
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" ht="27">
+    <row r="85" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="12">
         <v>0.7</v>
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" ht="27">
+    <row r="86" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="12">
         <v>0.8</v>
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" ht="27">
+    <row r="87" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="12">
         <v>0.8</v>
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" ht="40.5">
+    <row r="88" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>18</v>
       </c>
@@ -1880,29 +1963,29 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="11" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
@@ -1916,47 +1999,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="27">
+    <row r="93" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="23"/>
+      <c r="C93" s="12">
+        <v>0.9</v>
+      </c>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" ht="27">
+    <row r="94" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="23"/>
+      <c r="C94" s="12">
+        <v>0.9</v>
+      </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" ht="27">
+    <row r="95" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="23"/>
+      <c r="C95" s="12">
+        <v>0.9</v>
+      </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" ht="27">
+    <row r="96" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="23"/>
+      <c r="C96" s="12">
+        <v>0.9</v>
+      </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" ht="40.5">
+    <row r="97" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>18</v>
       </c>
@@ -1964,22 +2055,228 @@
         <v>90</v>
       </c>
       <c r="C97" s="10"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
+      <c r="D97" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A98:D99"/>
     <mergeCell ref="A19:D19"/>
@@ -1994,22 +2291,8 @@
     <mergeCell ref="A53:D54"/>
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="B12:B15"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A71:D72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,12 +2301,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,12 +2315,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -446,8 +446,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善PC端网页的细节还有js的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善群主模块功能网页的细节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善系统管理员模块功能网页的细节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善普通用户相关功能模块的网页的细节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：完成的进度还可以，不过在细节上出现了一些小的问题，比如在不同屏幕手机展示效果布局出现较大的偏差，所以还需对所编写好的一些css进行调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划到下周结束前完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划到下周结束前完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划到下周结束前完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划到本周结束前完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划到本周结束前完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>日期：2018.10.29</t>
+      <t>日期：2018.10.31</t>
     </r>
     <r>
       <rPr>
@@ -463,20 +523,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>日期：2018.10.29</t>
+      <t>日期：2018.11.1</t>
     </r>
     <r>
       <rPr>
@@ -492,23 +540,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完善PC端网页的细节还有js的编写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善群主模块功能网页的细节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善系统管理员模块功能网页的细节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善普通用户相关功能模块的网页的细节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：完成的进度还可以，不过在细节上出现了一些小的问题，比如在不同屏幕手机展示效果布局出现较大的偏差，所以还需对所编写好的一些css进行调整</t>
+    <r>
+      <t>日期：2018.11.5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十周周一</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,41 +722,44 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1030,12 +1078,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1112,26 +1160,26 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1151,7 +1199,7 @@
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1163,7 +1211,7 @@
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1173,7 +1221,7 @@
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1183,7 +1231,7 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1202,26 +1250,26 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1247,7 +1295,7 @@
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1261,7 +1309,7 @@
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
@@ -1273,7 +1321,7 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -1285,7 +1333,7 @@
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -1297,29 +1345,29 @@
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -1396,26 +1444,26 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -1447,13 +1495,13 @@
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1461,9 +1509,9 @@
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
@@ -1490,26 +1538,26 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
@@ -1529,13 +1577,13 @@
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1543,63 +1591,63 @@
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="18"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="18"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="18"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
@@ -1619,7 +1667,7 @@
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -1631,7 +1679,7 @@
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
@@ -1641,7 +1689,7 @@
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="3" t="s">
         <v>63</v>
       </c>
@@ -1651,7 +1699,7 @@
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
@@ -1661,33 +1709,33 @@
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
@@ -1770,26 +1818,26 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
@@ -1866,26 +1914,26 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
@@ -1964,26 +2012,26 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
@@ -2060,26 +2108,26 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
+      <c r="A100" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
@@ -2103,7 +2151,7 @@
         <v>78</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102" s="3"/>
     </row>
@@ -2115,7 +2163,7 @@
         <v>79</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D103" s="3"/>
     </row>
@@ -2127,7 +2175,7 @@
         <v>80</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D104" s="3"/>
     </row>
@@ -2139,7 +2187,7 @@
         <v>81</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D105" s="3"/>
     </row>
@@ -2156,26 +2204,26 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
+      <c r="A107" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
+      <c r="A109" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -2196,40 +2244,56 @@
         <v>6</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
@@ -2238,47 +2302,127 @@
       <c r="B115" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="11"/>
+      <c r="C115" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="D115" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D117"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A98:D99"/>
+  <mergeCells count="36">
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A125:D126"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="D21:D25"/>
@@ -2291,8 +2435,28 @@
     <mergeCell ref="A53:D54"/>
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A98:D99"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A80:D81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="9390"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="130">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -556,12 +556,134 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十一周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试已完成的web端功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑锐芝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区梓恒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决群主模块功能网页编写后在手机上显示出现效果不一致的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决系统管理员功能网页编写后在手机上显示出现效果不一致的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划到本周结束前完成</t>
+  </si>
+  <si>
+    <t>计划到本周结束前完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不在学校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成聊天交互的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：没有全部完成，分的范围太广，完成起来不是很好，接下来将对未完成的任务进行更细的分配。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,19 +847,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -748,18 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,7 +898,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -850,7 +972,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -885,7 +1006,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1061,14 +1181,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:D118"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:D171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
@@ -1077,15 +1197,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1099,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1231,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1243,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1135,7 +1255,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="27">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1267,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1159,29 +1279,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1195,11 +1315,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1207,37 +1327,37 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1249,29 +1369,29 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1285,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -1295,11 +1415,11 @@
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="54">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1309,9 +1429,9 @@
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" ht="54">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1321,9 +1441,9 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" ht="54">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1333,9 +1453,9 @@
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1345,31 +1465,31 @@
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="15" t="s">
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="40.5">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1515,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="54">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1527,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="54">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1539,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="54">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -1431,7 +1551,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="54">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -1443,29 +1563,29 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1491,29 +1611,29 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="29.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="24.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="23"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
@@ -1525,7 +1645,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
@@ -1537,29 +1657,29 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
@@ -1573,83 +1693,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="24"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.5" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="24"/>
-    </row>
-    <row r="51" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4" ht="21.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="25"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="24"/>
-    </row>
-    <row r="52" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" ht="21.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="23"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="15" t="s">
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="17" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -1663,11 +1783,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -1675,69 +1795,69 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="15" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="17" t="s">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="27">
       <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="27">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +1899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="27">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1911,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="27">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -1805,7 +1925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="27">
       <c r="A70" s="4" t="s">
         <v>18</v>
       </c>
@@ -1817,29 +1937,29 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="15" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="16" t="s">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
@@ -1853,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="27">
       <c r="A75" s="4" t="s">
         <v>6</v>
       </c>
@@ -1865,7 +1985,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="27">
       <c r="A76" s="4" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1997,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="27">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -1889,7 +2009,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="27">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +2021,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="27">
       <c r="A79" s="4" t="s">
         <v>18</v>
       </c>
@@ -1913,29 +2033,29 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="16" t="s">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
@@ -1949,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="27">
       <c r="A84" s="4" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +2081,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="27">
       <c r="A85" s="4" t="s">
         <v>8</v>
       </c>
@@ -1973,7 +2093,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="27">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -1985,7 +2105,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="27">
       <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
@@ -1997,7 +2117,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="40.5">
       <c r="A88" s="4" t="s">
         <v>18</v>
       </c>
@@ -2011,29 +2131,29 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="14" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="16" t="s">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
@@ -2047,7 +2167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="27">
       <c r="A93" s="4" t="s">
         <v>6</v>
       </c>
@@ -2059,7 +2179,7 @@
       </c>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="27">
       <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
@@ -2071,7 +2191,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="27">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -2083,7 +2203,7 @@
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="27">
       <c r="A96" s="4" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2215,7 @@
       </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="40.5">
       <c r="A97" s="4" t="s">
         <v>18</v>
       </c>
@@ -2107,29 +2227,29 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="14" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="16" t="s">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>1</v>
       </c>
@@ -2143,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" ht="27">
       <c r="A102" s="4" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2275,7 @@
       </c>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" ht="27">
       <c r="A103" s="4" t="s">
         <v>8</v>
       </c>
@@ -2167,7 +2287,7 @@
       </c>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" ht="27">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -2179,7 +2299,7 @@
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" ht="27">
       <c r="A105" s="4" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2311,7 @@
       </c>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" ht="40.5">
       <c r="A106" s="4" t="s">
         <v>18</v>
       </c>
@@ -2203,29 +2323,29 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="14" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="16" t="s">
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +2359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
         <v>6</v>
       </c>
@@ -2253,7 +2373,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2387,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" ht="27">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -2281,7 +2401,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" ht="27">
       <c r="A114" s="4" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2415,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" ht="40.5">
       <c r="A115" s="4" t="s">
         <v>18</v>
       </c>
@@ -2309,29 +2429,29 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="14" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="16" t="s">
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
@@ -2345,82 +2465,748 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C120" s="12"/>
+      <c r="C120" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="D120" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C121" s="12"/>
+      <c r="C121" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="D121" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" ht="27">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C122" s="12"/>
+      <c r="C122" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="D122" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" ht="27">
       <c r="A123" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C123" s="12"/>
+      <c r="C123" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="D123" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" ht="40.5">
       <c r="A124" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C124" s="13"/>
+      <c r="C124" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="D124" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="14" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="27">
+      <c r="A131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="27">
+      <c r="A132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="40.5">
+      <c r="A133" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="17"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="27">
+      <c r="A140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="27">
+      <c r="A141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="40.5">
+      <c r="A142" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="27">
+      <c r="A149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="27">
+      <c r="A150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="40.5">
+      <c r="A151" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="27">
+      <c r="A158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="27">
+      <c r="A159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="40.5">
+      <c r="A160" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="27">
+      <c r="A167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="27">
+      <c r="A168" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="40.5">
+      <c r="A169" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="17"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" s="12"/>
+      <c r="D174" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="27">
+      <c r="A175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C175" s="12"/>
+      <c r="D175" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="27">
+      <c r="A176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="17"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="48">
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A170:D171"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A125:D126"/>
     <mergeCell ref="A19:D19"/>
@@ -2435,28 +3221,8 @@
     <mergeCell ref="A53:D54"/>
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="B12:B15"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A71:D72"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D117"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A80:D81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2465,12 +3231,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2479,12 +3245,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第09组/09项目计划表.xlsx
+++ b/第09组/09项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="146">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -676,6 +676,135 @@
   </si>
   <si>
     <t>总结：没有全部完成，分的范围太广，完成起来不是很好，接下来将对未完成的任务进行更细的分配。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.14</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十一周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十一周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：直到本周末，基本上完成了整个需求规格说明书上的所有功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区梓恒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴培宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试使用整个app，找出软件存在的bug以便在演示前得到修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.19</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十二周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外添加生成群二维码的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外添加扫码加群的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十二周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成群二维码功能在本周二完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十二周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：到此，整个项目的功能包括额外扩展的功能代码全部编写完毕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外添加头像裁剪的功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,6 +976,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -859,19 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,6 +1002,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:D171"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224:D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1198,12 +1330,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -1280,26 +1412,26 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
@@ -1319,7 +1451,7 @@
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1331,7 +1463,7 @@
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1473,7 @@
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1351,7 +1483,7 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1370,26 +1502,26 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
@@ -1415,7 +1547,7 @@
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1429,7 +1561,7 @@
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" ht="54">
       <c r="A23" s="4" t="s">
@@ -1441,7 +1573,7 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" ht="54">
       <c r="A24" s="4" t="s">
@@ -1453,7 +1585,7 @@
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4" ht="40.5">
       <c r="A25" s="4" t="s">
@@ -1465,29 +1597,29 @@
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
@@ -1564,26 +1696,26 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
@@ -1615,13 +1747,13 @@
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1629,9 +1761,9 @@
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
@@ -1658,26 +1790,26 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
@@ -1697,13 +1829,13 @@
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1711,63 +1843,63 @@
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:4" ht="25.5" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="22"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4" ht="21.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" ht="21.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="20"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
@@ -1787,7 +1919,7 @@
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -1799,7 +1931,7 @@
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1941,7 @@
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="3" t="s">
         <v>63</v>
       </c>
@@ -1819,7 +1951,7 @@
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
@@ -1829,33 +1961,33 @@
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
@@ -1938,26 +2070,26 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
@@ -2034,26 +2166,26 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
@@ -2132,26 +2264,26 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
@@ -2228,26 +2360,26 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
@@ -2324,26 +2456,26 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
@@ -2430,26 +2562,26 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
@@ -2536,26 +2668,26 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
@@ -2642,26 +2774,26 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="17"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
@@ -2748,26 +2880,26 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
@@ -2854,26 +2986,26 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="16" t="s">
+      <c r="A152" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
@@ -2960,26 +3092,26 @@
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B163" s="15"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
@@ -3003,7 +3135,7 @@
         <v>97</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>107</v>
@@ -3066,26 +3198,26 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B172" s="15"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
@@ -3108,7 +3240,9 @@
       <c r="B174" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C174" s="12"/>
+      <c r="C174" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D174" s="3" t="s">
         <v>125</v>
       </c>
@@ -3120,7 +3254,9 @@
       <c r="B175" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C175" s="12"/>
+      <c r="C175" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D175" s="3" t="s">
         <v>124</v>
       </c>
@@ -3132,7 +3268,9 @@
       <c r="B176" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C176" s="12"/>
+      <c r="C176" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D176" s="3" t="s">
         <v>107</v>
       </c>
@@ -3144,7 +3282,9 @@
       <c r="B177" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C177" s="12"/>
+      <c r="C177" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4">
@@ -3160,53 +3300,505 @@
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="16" t="s">
+      <c r="A179" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="17"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
+      <c r="A180" s="18"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="27">
+      <c r="A184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="27">
+      <c r="A185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187" s="9"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="18"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="27">
+      <c r="A193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="27">
+      <c r="A194" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" s="9"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="18"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D201" s="23"/>
+    </row>
+    <row r="202" spans="1:4" ht="27" customHeight="1">
+      <c r="A202" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B202" s="26"/>
+      <c r="C202" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D202" s="25"/>
+    </row>
+    <row r="203" spans="1:4" ht="27" customHeight="1">
+      <c r="A203" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="26"/>
+      <c r="C203" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D203" s="25"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B204" s="20"/>
+      <c r="C204" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D204" s="24"/>
+    </row>
+    <row r="205" spans="1:4" ht="27">
+      <c r="A205" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="18"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B208" s="16"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="16"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D210" s="23"/>
+    </row>
+    <row r="211" spans="1:4" ht="27" customHeight="1">
+      <c r="A211" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B211" s="26"/>
+      <c r="C211" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D211" s="25"/>
+    </row>
+    <row r="212" spans="1:4" ht="27" customHeight="1">
+      <c r="A212" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="26"/>
+      <c r="C212" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D212" s="25"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B213" s="20"/>
+      <c r="C213" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D213" s="24"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="18"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="18"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="18"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="16"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D219" s="23"/>
+    </row>
+    <row r="220" spans="1:4" ht="27" customHeight="1">
+      <c r="A220" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B220" s="26"/>
+      <c r="C220" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D220" s="25"/>
+    </row>
+    <row r="221" spans="1:4" ht="27" customHeight="1">
+      <c r="A221" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="26"/>
+      <c r="C221" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D221" s="25"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D222" s="24"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D223" s="3"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="18"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="18"/>
+      <c r="B225" s="18"/>
+      <c r="C225" s="18"/>
+      <c r="D225" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A161:D162"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A170:D171"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A134:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D117"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="B12:B15"/>
+  <mergeCells count="64">
+    <mergeCell ref="A215:D216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="B219:B222"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="A224:D225"/>
+    <mergeCell ref="A206:D207"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A188:D189"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A197:D198"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="D210:D213"/>
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A125:D126"/>
     <mergeCell ref="A19:D19"/>
@@ -3223,6 +3815,38 @@
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A71:D72"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A170:D171"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
